--- a/Team-Data/2008-09/11-30-2008-09.xlsx
+++ b/Team-Data/2008-09/11-30-2008-09.xlsx
@@ -811,13 +811,13 @@
         <v>1.2</v>
       </c>
       <c r="AD2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE2" t="n">
         <v>10</v>
       </c>
       <c r="AF2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG2" t="n">
         <v>10</v>
@@ -847,7 +847,7 @@
         <v>20</v>
       </c>
       <c r="AP2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ2" t="n">
         <v>23</v>
@@ -880,10 +880,10 @@
         <v>14</v>
       </c>
       <c r="BA2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BC2" t="n">
         <v>12</v>
@@ -915,85 +915,85 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>0.882</v>
+        <v>0.889</v>
       </c>
       <c r="H3" t="n">
         <v>48.3</v>
       </c>
       <c r="I3" t="n">
-        <v>35.4</v>
+        <v>35.3</v>
       </c>
       <c r="J3" t="n">
-        <v>75.8</v>
+        <v>75.7</v>
       </c>
       <c r="K3" t="n">
-        <v>0.467</v>
+        <v>0.466</v>
       </c>
       <c r="L3" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="M3" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="N3" t="n">
-        <v>0.343</v>
+        <v>0.337</v>
       </c>
       <c r="O3" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="P3" t="n">
-        <v>29.4</v>
+        <v>29.6</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.766</v>
+        <v>0.756</v>
       </c>
       <c r="R3" t="n">
         <v>10.3</v>
       </c>
       <c r="S3" t="n">
-        <v>32.6</v>
+        <v>32.2</v>
       </c>
       <c r="T3" t="n">
-        <v>42.9</v>
+        <v>42.5</v>
       </c>
       <c r="U3" t="n">
-        <v>21.1</v>
+        <v>20.8</v>
       </c>
       <c r="V3" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="W3" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X3" t="n">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Z3" t="n">
-        <v>22.9</v>
+        <v>23.2</v>
       </c>
       <c r="AA3" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="AB3" t="n">
-        <v>98.7</v>
+        <v>98.2</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.300000000000001</v>
+        <v>8.1</v>
       </c>
       <c r="AD3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -1005,7 +1005,7 @@
         <v>2</v>
       </c>
       <c r="AH3" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AI3" t="n">
         <v>22</v>
@@ -1017,13 +1017,13 @@
         <v>5</v>
       </c>
       <c r="AL3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AM3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AN3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO3" t="n">
         <v>2</v>
@@ -1032,7 +1032,7 @@
         <v>4</v>
       </c>
       <c r="AQ3" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AR3" t="n">
         <v>23</v>
@@ -1041,31 +1041,31 @@
         <v>6</v>
       </c>
       <c r="AT3" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AU3" t="n">
         <v>11</v>
       </c>
       <c r="AV3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AW3" t="n">
         <v>6</v>
       </c>
       <c r="AX3" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AY3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BA3" t="n">
         <v>3</v>
       </c>
       <c r="BB3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BC3" t="n">
         <v>3</v>
@@ -1175,7 +1175,7 @@
         <v>-3.8</v>
       </c>
       <c r="AD4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE4" t="n">
         <v>23</v>
@@ -1199,7 +1199,7 @@
         <v>25</v>
       </c>
       <c r="AL4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AM4" t="n">
         <v>25</v>
@@ -1208,19 +1208,19 @@
         <v>21</v>
       </c>
       <c r="AO4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP4" t="n">
         <v>11</v>
       </c>
       <c r="AQ4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AR4" t="n">
         <v>19</v>
       </c>
       <c r="AS4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AT4" t="n">
         <v>28</v>
@@ -1244,13 +1244,13 @@
         <v>20</v>
       </c>
       <c r="BA4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BB4" t="n">
         <v>30</v>
       </c>
       <c r="BC4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1279,139 +1279,139 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F5" t="n">
         <v>9</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4</v>
+        <v>0.438</v>
       </c>
       <c r="H5" t="n">
         <v>48</v>
       </c>
       <c r="I5" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="J5" t="n">
-        <v>85.3</v>
+        <v>84.3</v>
       </c>
       <c r="K5" t="n">
-        <v>0.425</v>
+        <v>0.43</v>
       </c>
       <c r="L5" t="n">
         <v>5.5</v>
       </c>
       <c r="M5" t="n">
-        <v>15.9</v>
+        <v>15.6</v>
       </c>
       <c r="N5" t="n">
-        <v>0.349</v>
+        <v>0.352</v>
       </c>
       <c r="O5" t="n">
-        <v>19.1</v>
+        <v>19.9</v>
       </c>
       <c r="P5" t="n">
-        <v>23.5</v>
+        <v>24.8</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.8129999999999999</v>
+        <v>0.806</v>
       </c>
       <c r="R5" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="S5" t="n">
-        <v>30.3</v>
+        <v>30</v>
       </c>
       <c r="T5" t="n">
-        <v>42.7</v>
+        <v>42.6</v>
       </c>
       <c r="U5" t="n">
-        <v>18.2</v>
+        <v>18.8</v>
       </c>
       <c r="V5" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="W5" t="n">
         <v>8.699999999999999</v>
       </c>
       <c r="X5" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Y5" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>23.6</v>
+        <v>23.3</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.5</v>
+        <v>21.1</v>
       </c>
       <c r="AB5" t="n">
-        <v>97.09999999999999</v>
+        <v>97.8</v>
       </c>
       <c r="AC5" t="n">
-        <v>-4.4</v>
+        <v>-3.3</v>
       </c>
       <c r="AD5" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AE5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF5" t="n">
         <v>18</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AH5" t="n">
         <v>21</v>
       </c>
       <c r="AI5" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AK5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL5" t="n">
         <v>17</v>
       </c>
       <c r="AM5" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AN5" t="n">
+        <v>14</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP5" t="n">
         <v>15</v>
       </c>
-      <c r="AO5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>20</v>
-      </c>
       <c r="AQ5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR5" t="n">
         <v>6</v>
       </c>
       <c r="AS5" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AT5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AV5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW5" t="n">
         <v>5</v>
@@ -1420,19 +1420,19 @@
         <v>17</v>
       </c>
       <c r="AY5" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AZ5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BA5" t="n">
+        <v>15</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>17</v>
+      </c>
+      <c r="BC5" t="n">
         <v>23</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>20</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>24</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1461,91 +1461,91 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E6" t="n">
         <v>14</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
-        <v>0.875</v>
+        <v>0.824</v>
       </c>
       <c r="H6" t="n">
         <v>48</v>
       </c>
       <c r="I6" t="n">
-        <v>38.7</v>
+        <v>38.1</v>
       </c>
       <c r="J6" t="n">
-        <v>80</v>
+        <v>79.3</v>
       </c>
       <c r="K6" t="n">
-        <v>0.484</v>
+        <v>0.481</v>
       </c>
       <c r="L6" t="n">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="M6" t="n">
-        <v>20.4</v>
+        <v>20.1</v>
       </c>
       <c r="N6" t="n">
-        <v>0.346</v>
+        <v>0.339</v>
       </c>
       <c r="O6" t="n">
-        <v>20.3</v>
+        <v>20.5</v>
       </c>
       <c r="P6" t="n">
-        <v>26.3</v>
+        <v>26.7</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.772</v>
+        <v>0.769</v>
       </c>
       <c r="R6" t="n">
-        <v>11.6</v>
+        <v>11.4</v>
       </c>
       <c r="S6" t="n">
-        <v>31.1</v>
+        <v>31.2</v>
       </c>
       <c r="T6" t="n">
-        <v>42.8</v>
+        <v>42.6</v>
       </c>
       <c r="U6" t="n">
-        <v>21.1</v>
+        <v>20.8</v>
       </c>
       <c r="V6" t="n">
-        <v>12.4</v>
+        <v>13</v>
       </c>
       <c r="W6" t="n">
         <v>7.4</v>
       </c>
       <c r="X6" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.6</v>
+        <v>20.9</v>
       </c>
       <c r="AA6" t="n">
-        <v>21.1</v>
+        <v>21.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>104.8</v>
+        <v>103.6</v>
       </c>
       <c r="AC6" t="n">
-        <v>11.9</v>
+        <v>10.9</v>
       </c>
       <c r="AD6" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="AE6" t="n">
         <v>2</v>
       </c>
       <c r="AF6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG6" t="n">
         <v>3</v>
@@ -1554,10 +1554,10 @@
         <v>21</v>
       </c>
       <c r="AI6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ6" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AK6" t="n">
         <v>3</v>
@@ -1566,34 +1566,34 @@
         <v>10</v>
       </c>
       <c r="AM6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>18</v>
+      </c>
+      <c r="AO6" t="n">
         <v>6</v>
       </c>
-      <c r="AN6" t="n">
+      <c r="AP6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AR6" t="n">
         <v>16</v>
       </c>
-      <c r="AO6" t="n">
-        <v>7</v>
-      </c>
-      <c r="AP6" t="n">
+      <c r="AS6" t="n">
         <v>10</v>
       </c>
-      <c r="AQ6" t="n">
+      <c r="AT6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AU6" t="n">
         <v>12</v>
       </c>
-      <c r="AR6" t="n">
-        <v>14</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>10</v>
-      </c>
       <c r="AV6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW6" t="n">
         <v>17</v>
@@ -1602,16 +1602,16 @@
         <v>6</v>
       </c>
       <c r="AY6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AZ6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA6" t="n">
         <v>13</v>
       </c>
       <c r="BB6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC6" t="n">
         <v>2</v>
@@ -1721,7 +1721,7 @@
         <v>2.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE7" t="n">
         <v>14</v>
@@ -1739,7 +1739,7 @@
         <v>9</v>
       </c>
       <c r="AJ7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK7" t="n">
         <v>20</v>
@@ -1757,7 +1757,7 @@
         <v>18</v>
       </c>
       <c r="AP7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ7" t="n">
         <v>5</v>
@@ -1793,7 +1793,7 @@
         <v>27</v>
       </c>
       <c r="BB7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BC7" t="n">
         <v>9</v>
@@ -1903,19 +1903,19 @@
         <v>2.2</v>
       </c>
       <c r="AD8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE8" t="n">
         <v>5</v>
       </c>
       <c r="AF8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AH8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI8" t="n">
         <v>26</v>
@@ -1948,16 +1948,16 @@
         <v>24</v>
       </c>
       <c r="AS8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AT8" t="n">
         <v>16</v>
       </c>
       <c r="AU8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV8" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AW8" t="n">
         <v>2</v>
@@ -2085,7 +2085,7 @@
         <v>0.9</v>
       </c>
       <c r="AD9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AE9" t="n">
         <v>10</v>
@@ -2094,7 +2094,7 @@
         <v>5</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH9" t="n">
         <v>21</v>
@@ -2103,7 +2103,7 @@
         <v>17</v>
       </c>
       <c r="AJ9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK9" t="n">
         <v>15</v>
@@ -2118,25 +2118,25 @@
         <v>6</v>
       </c>
       <c r="AO9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP9" t="n">
         <v>9</v>
       </c>
-      <c r="AP9" t="n">
-        <v>8</v>
-      </c>
       <c r="AQ9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR9" t="n">
+        <v>14</v>
+      </c>
+      <c r="AS9" t="n">
         <v>15</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>16</v>
       </c>
       <c r="AT9" t="n">
         <v>13</v>
       </c>
       <c r="AU9" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AV9" t="n">
         <v>6</v>
@@ -2145,10 +2145,10 @@
         <v>23</v>
       </c>
       <c r="AX9" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AY9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ9" t="n">
         <v>18</v>
@@ -2157,7 +2157,7 @@
         <v>12</v>
       </c>
       <c r="BB9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BC9" t="n">
         <v>14</v>
@@ -2267,13 +2267,13 @@
         <v>-4.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE10" t="n">
         <v>23</v>
       </c>
       <c r="AF10" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG10" t="n">
         <v>24</v>
@@ -2282,7 +2282,7 @@
         <v>7</v>
       </c>
       <c r="AI10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ10" t="n">
         <v>3</v>
@@ -2294,7 +2294,7 @@
         <v>18</v>
       </c>
       <c r="AM10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AN10" t="n">
         <v>27</v>
@@ -2339,7 +2339,7 @@
         <v>2</v>
       </c>
       <c r="BB10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC10" t="n">
         <v>25</v>
@@ -2449,25 +2449,25 @@
         <v>4.2</v>
       </c>
       <c r="AD11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE11" t="n">
         <v>5</v>
       </c>
       <c r="AF11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AH11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI11" t="n">
         <v>29</v>
       </c>
       <c r="AJ11" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK11" t="n">
         <v>26</v>
@@ -2476,16 +2476,16 @@
         <v>15</v>
       </c>
       <c r="AM11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AO11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ11" t="n">
         <v>2</v>
@@ -2500,7 +2500,7 @@
         <v>6</v>
       </c>
       <c r="AU11" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AV11" t="n">
         <v>5</v>
@@ -2518,7 +2518,7 @@
         <v>2</v>
       </c>
       <c r="BA11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB11" t="n">
         <v>24</v>
@@ -2631,16 +2631,16 @@
         <v>0.1</v>
       </c>
       <c r="AD12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AF12" t="n">
         <v>21</v>
       </c>
       <c r="AG12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH12" t="n">
         <v>5</v>
@@ -2649,7 +2649,7 @@
         <v>7</v>
       </c>
       <c r="AJ12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK12" t="n">
         <v>17</v>
@@ -2658,7 +2658,7 @@
         <v>9</v>
       </c>
       <c r="AM12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AN12" t="n">
         <v>13</v>
@@ -2685,7 +2685,7 @@
         <v>7</v>
       </c>
       <c r="AV12" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AW12" t="n">
         <v>25</v>
@@ -2703,7 +2703,7 @@
         <v>15</v>
       </c>
       <c r="BB12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BC12" t="n">
         <v>17</v>
@@ -2813,7 +2813,7 @@
         <v>-8.6</v>
       </c>
       <c r="AD13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE13" t="n">
         <v>28</v>
@@ -2837,7 +2837,7 @@
         <v>29</v>
       </c>
       <c r="AL13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AM13" t="n">
         <v>15</v>
@@ -2864,7 +2864,7 @@
         <v>22</v>
       </c>
       <c r="AU13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AV13" t="n">
         <v>18</v>
@@ -2917,25 +2917,25 @@
         </is>
       </c>
       <c r="D14" t="n">
+        <v>14</v>
+      </c>
+      <c r="E14" t="n">
         <v>13</v>
-      </c>
-      <c r="E14" t="n">
-        <v>12</v>
       </c>
       <c r="F14" t="n">
         <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>0.923</v>
+        <v>0.929</v>
       </c>
       <c r="H14" t="n">
         <v>48</v>
       </c>
       <c r="I14" t="n">
-        <v>40.6</v>
+        <v>40.4</v>
       </c>
       <c r="J14" t="n">
-        <v>87.8</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="K14" t="n">
         <v>0.463</v>
@@ -2944,61 +2944,61 @@
         <v>6.8</v>
       </c>
       <c r="M14" t="n">
-        <v>18.2</v>
+        <v>17.6</v>
       </c>
       <c r="N14" t="n">
-        <v>0.373</v>
+        <v>0.386</v>
       </c>
       <c r="O14" t="n">
-        <v>20.4</v>
+        <v>20</v>
       </c>
       <c r="P14" t="n">
-        <v>27.2</v>
+        <v>26.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.751</v>
+        <v>0.755</v>
       </c>
       <c r="R14" t="n">
-        <v>14</v>
+        <v>13.6</v>
       </c>
       <c r="S14" t="n">
-        <v>32.8</v>
+        <v>33.3</v>
       </c>
       <c r="T14" t="n">
-        <v>46.8</v>
+        <v>46.9</v>
       </c>
       <c r="U14" t="n">
-        <v>22.7</v>
+        <v>22.4</v>
       </c>
       <c r="V14" t="n">
-        <v>13.2</v>
+        <v>13.4</v>
       </c>
       <c r="W14" t="n">
-        <v>10.4</v>
+        <v>10.2</v>
       </c>
       <c r="X14" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="Z14" t="n">
-        <v>19.8</v>
+        <v>19.6</v>
       </c>
       <c r="AA14" t="n">
-        <v>22.2</v>
+        <v>21.9</v>
       </c>
       <c r="AB14" t="n">
-        <v>108.4</v>
+        <v>107.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>13.3</v>
+        <v>13.8</v>
       </c>
       <c r="AD14" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF14" t="n">
         <v>1</v>
@@ -3016,40 +3016,40 @@
         <v>2</v>
       </c>
       <c r="AK14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL14" t="n">
         <v>11</v>
       </c>
       <c r="AM14" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AN14" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AO14" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AP14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AQ14" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AR14" t="n">
         <v>2</v>
       </c>
       <c r="AS14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT14" t="n">
         <v>1</v>
       </c>
       <c r="AU14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AW14" t="n">
         <v>1</v>
@@ -3058,13 +3058,13 @@
         <v>5</v>
       </c>
       <c r="AY14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BA14" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BB14" t="n">
         <v>1</v>
@@ -3177,7 +3177,7 @@
         <v>-6.8</v>
       </c>
       <c r="AD15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE15" t="n">
         <v>26</v>
@@ -3189,7 +3189,7 @@
         <v>27</v>
       </c>
       <c r="AH15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI15" t="n">
         <v>23</v>
@@ -3213,7 +3213,7 @@
         <v>19</v>
       </c>
       <c r="AP15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ15" t="n">
         <v>18</v>
@@ -3359,7 +3359,7 @@
         <v>1.1</v>
       </c>
       <c r="AD16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE16" t="n">
         <v>14</v>
@@ -3374,7 +3374,7 @@
         <v>21</v>
       </c>
       <c r="AI16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ16" t="n">
         <v>13</v>
@@ -3386,7 +3386,7 @@
         <v>7</v>
       </c>
       <c r="AM16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AN16" t="n">
         <v>17</v>
@@ -3395,7 +3395,7 @@
         <v>25</v>
       </c>
       <c r="AP16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ16" t="n">
         <v>25</v>
@@ -3419,10 +3419,10 @@
         <v>4</v>
       </c>
       <c r="AX16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ16" t="n">
         <v>9</v>
@@ -3431,7 +3431,7 @@
         <v>25</v>
       </c>
       <c r="BB16" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BC16" t="n">
         <v>13</v>
@@ -3463,28 +3463,28 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E17" t="n">
         <v>7</v>
       </c>
       <c r="F17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G17" t="n">
-        <v>0.389</v>
+        <v>0.368</v>
       </c>
       <c r="H17" t="n">
         <v>48.8</v>
       </c>
       <c r="I17" t="n">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="J17" t="n">
-        <v>81.90000000000001</v>
+        <v>81.7</v>
       </c>
       <c r="K17" t="n">
-        <v>0.427</v>
+        <v>0.429</v>
       </c>
       <c r="L17" t="n">
         <v>4.9</v>
@@ -3493,34 +3493,34 @@
         <v>14.2</v>
       </c>
       <c r="N17" t="n">
-        <v>0.345</v>
+        <v>0.349</v>
       </c>
       <c r="O17" t="n">
-        <v>20.1</v>
+        <v>19.8</v>
       </c>
       <c r="P17" t="n">
-        <v>26.3</v>
+        <v>26</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.764</v>
+        <v>0.763</v>
       </c>
       <c r="R17" t="n">
         <v>13.2</v>
       </c>
       <c r="S17" t="n">
-        <v>31.5</v>
+        <v>30.8</v>
       </c>
       <c r="T17" t="n">
-        <v>44.7</v>
+        <v>44</v>
       </c>
       <c r="U17" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="V17" t="n">
-        <v>16.2</v>
+        <v>16.4</v>
       </c>
       <c r="W17" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="X17" t="n">
         <v>3.5</v>
@@ -3529,28 +3529,28 @@
         <v>5.7</v>
       </c>
       <c r="Z17" t="n">
-        <v>25.5</v>
+        <v>25.7</v>
       </c>
       <c r="AA17" t="n">
-        <v>23.9</v>
+        <v>23.6</v>
       </c>
       <c r="AB17" t="n">
         <v>95</v>
       </c>
       <c r="AC17" t="n">
-        <v>-1.8</v>
+        <v>-2.4</v>
       </c>
       <c r="AD17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE17" t="n">
         <v>19</v>
       </c>
       <c r="AF17" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG17" t="n">
         <v>22</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>21</v>
       </c>
       <c r="AH17" t="n">
         <v>2</v>
@@ -3562,40 +3562,40 @@
         <v>12</v>
       </c>
       <c r="AK17" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL17" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AM17" t="n">
         <v>26</v>
       </c>
       <c r="AN17" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AO17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP17" t="n">
         <v>10</v>
       </c>
-      <c r="AP17" t="n">
-        <v>8</v>
-      </c>
       <c r="AQ17" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR17" t="n">
         <v>4</v>
       </c>
       <c r="AS17" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AT17" t="n">
         <v>5</v>
       </c>
       <c r="AU17" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AV17" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AW17" t="n">
         <v>27</v>
@@ -3723,7 +3723,7 @@
         <v>-3</v>
       </c>
       <c r="AD18" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AE18" t="n">
         <v>26</v>
@@ -3747,7 +3747,7 @@
         <v>23</v>
       </c>
       <c r="AL18" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AM18" t="n">
         <v>23</v>
@@ -3756,7 +3756,7 @@
         <v>24</v>
       </c>
       <c r="AO18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP18" t="n">
         <v>23</v>
@@ -3789,13 +3789,13 @@
         <v>22</v>
       </c>
       <c r="AZ18" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BA18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BB18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BC18" t="n">
         <v>21</v>
@@ -3905,7 +3905,7 @@
         <v>-3.1</v>
       </c>
       <c r="AD19" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AE19" t="n">
         <v>14</v>
@@ -3935,7 +3935,7 @@
         <v>9</v>
       </c>
       <c r="AN19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO19" t="n">
         <v>4</v>
@@ -3944,7 +3944,7 @@
         <v>5</v>
       </c>
       <c r="AQ19" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AR19" t="n">
         <v>13</v>
@@ -3959,13 +3959,13 @@
         <v>24</v>
       </c>
       <c r="AV19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AW19" t="n">
         <v>24</v>
       </c>
       <c r="AX19" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AY19" t="n">
         <v>14</v>
@@ -3974,7 +3974,7 @@
         <v>30</v>
       </c>
       <c r="BA19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BB19" t="n">
         <v>5</v>
@@ -4087,13 +4087,13 @@
         <v>3.2</v>
       </c>
       <c r="AD20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AE20" t="n">
         <v>12</v>
       </c>
       <c r="AF20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG20" t="n">
         <v>12</v>
@@ -4120,13 +4120,13 @@
         <v>4</v>
       </c>
       <c r="AO20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP20" t="n">
         <v>27</v>
       </c>
       <c r="AQ20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AR20" t="n">
         <v>27</v>
@@ -4150,7 +4150,7 @@
         <v>26</v>
       </c>
       <c r="AY20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AZ20" t="n">
         <v>15</v>
@@ -4269,7 +4269,7 @@
         <v>-2.4</v>
       </c>
       <c r="AD21" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE21" t="n">
         <v>14</v>
@@ -4299,7 +4299,7 @@
         <v>1</v>
       </c>
       <c r="AN21" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO21" t="n">
         <v>24</v>
@@ -4335,7 +4335,7 @@
         <v>15</v>
       </c>
       <c r="AZ21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA21" t="n">
         <v>30</v>
@@ -4451,7 +4451,7 @@
         <v>-11.2</v>
       </c>
       <c r="AD22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE22" t="n">
         <v>29</v>
@@ -4484,16 +4484,16 @@
         <v>11</v>
       </c>
       <c r="AO22" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AP22" t="n">
         <v>14</v>
       </c>
       <c r="AQ22" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AR22" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AS22" t="n">
         <v>21</v>
@@ -4505,10 +4505,10 @@
         <v>27</v>
       </c>
       <c r="AV22" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW22" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AX22" t="n">
         <v>24</v>
@@ -4633,7 +4633,7 @@
         <v>6.2</v>
       </c>
       <c r="AD23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE23" t="n">
         <v>3</v>
@@ -4645,7 +4645,7 @@
         <v>4</v>
       </c>
       <c r="AH23" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI23" t="n">
         <v>25</v>
@@ -4663,7 +4663,7 @@
         <v>2</v>
       </c>
       <c r="AN23" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO23" t="n">
         <v>5</v>
@@ -4678,7 +4678,7 @@
         <v>21</v>
       </c>
       <c r="AS23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT23" t="n">
         <v>8</v>
@@ -4696,19 +4696,19 @@
         <v>2</v>
       </c>
       <c r="AY23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ23" t="n">
         <v>11</v>
       </c>
       <c r="BA23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB23" t="n">
         <v>6</v>
       </c>
       <c r="BC23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4815,7 +4815,7 @@
         <v>0.3</v>
       </c>
       <c r="AD24" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE24" t="n">
         <v>19</v>
@@ -4869,13 +4869,13 @@
         <v>22</v>
       </c>
       <c r="AV24" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AW24" t="n">
         <v>19</v>
       </c>
       <c r="AX24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY24" t="n">
         <v>24</v>
@@ -4997,19 +4997,19 @@
         <v>1.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE25" t="n">
         <v>5</v>
       </c>
       <c r="AF25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AH25" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI25" t="n">
         <v>10</v>
@@ -5027,13 +5027,13 @@
         <v>16</v>
       </c>
       <c r="AN25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AQ25" t="n">
         <v>26</v>
@@ -5042,7 +5042,7 @@
         <v>30</v>
       </c>
       <c r="AS25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AT25" t="n">
         <v>24</v>
@@ -5101,58 +5101,58 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E26" t="n">
         <v>11</v>
       </c>
       <c r="F26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G26" t="n">
-        <v>0.6879999999999999</v>
+        <v>0.647</v>
       </c>
       <c r="H26" t="n">
         <v>48.3</v>
       </c>
       <c r="I26" t="n">
-        <v>36.6</v>
+        <v>36.2</v>
       </c>
       <c r="J26" t="n">
-        <v>79.09999999999999</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="K26" t="n">
-        <v>0.463</v>
+        <v>0.456</v>
       </c>
       <c r="L26" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="M26" t="n">
-        <v>21</v>
+        <v>21.2</v>
       </c>
       <c r="N26" t="n">
         <v>0.414</v>
       </c>
       <c r="O26" t="n">
-        <v>18</v>
+        <v>17.4</v>
       </c>
       <c r="P26" t="n">
-        <v>23.3</v>
+        <v>22.8</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.772</v>
+        <v>0.765</v>
       </c>
       <c r="R26" t="n">
         <v>13.1</v>
       </c>
       <c r="S26" t="n">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="T26" t="n">
-        <v>40.6</v>
+        <v>40.8</v>
       </c>
       <c r="U26" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="V26" t="n">
         <v>13.1</v>
@@ -5161,73 +5161,73 @@
         <v>7.5</v>
       </c>
       <c r="X26" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="Z26" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="AA26" t="n">
-        <v>20.9</v>
+        <v>20.7</v>
       </c>
       <c r="AB26" t="n">
-        <v>99.90000000000001</v>
+        <v>98.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>6.6</v>
+        <v>5.1</v>
       </c>
       <c r="AD26" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="AE26" t="n">
         <v>5</v>
       </c>
       <c r="AF26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH26" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>18</v>
+      </c>
+      <c r="AK26" t="n">
         <v>10</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>7</v>
       </c>
       <c r="AL26" t="n">
         <v>3</v>
       </c>
       <c r="AM26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AN26" t="n">
         <v>2</v>
       </c>
       <c r="AO26" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AP26" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ26" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AR26" t="n">
         <v>5</v>
       </c>
       <c r="AS26" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AT26" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AU26" t="n">
         <v>8</v>
@@ -5239,22 +5239,22 @@
         <v>15</v>
       </c>
       <c r="AX26" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AY26" t="n">
         <v>1</v>
       </c>
       <c r="AZ26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA26" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="BB26" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BC26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5427,10 +5427,10 @@
         <v>11</v>
       </c>
       <c r="AZ27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BA27" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BB27" t="n">
         <v>16</v>
@@ -5543,7 +5543,7 @@
         <v>0.6</v>
       </c>
       <c r="AD28" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE28" t="n">
         <v>12</v>
@@ -5564,7 +5564,7 @@
         <v>26</v>
       </c>
       <c r="AK28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL28" t="n">
         <v>5</v>
@@ -5597,7 +5597,7 @@
         <v>13</v>
       </c>
       <c r="AV28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW28" t="n">
         <v>30</v>
@@ -5606,7 +5606,7 @@
         <v>28</v>
       </c>
       <c r="AY28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AZ28" t="n">
         <v>3</v>
@@ -5725,7 +5725,7 @@
         <v>-0.9</v>
       </c>
       <c r="AD29" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AE29" t="n">
         <v>14</v>
@@ -5746,7 +5746,7 @@
         <v>25</v>
       </c>
       <c r="AK29" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL29" t="n">
         <v>12</v>
@@ -5758,10 +5758,10 @@
         <v>3</v>
       </c>
       <c r="AO29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AP29" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ29" t="n">
         <v>1</v>
@@ -5794,7 +5794,7 @@
         <v>1</v>
       </c>
       <c r="BA29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB29" t="n">
         <v>15</v>
@@ -5907,7 +5907,7 @@
         <v>3.6</v>
       </c>
       <c r="AD30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE30" t="n">
         <v>5</v>
@@ -5940,7 +5940,7 @@
         <v>12</v>
       </c>
       <c r="AO30" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AP30" t="n">
         <v>12</v>
@@ -6095,7 +6095,7 @@
         <v>29</v>
       </c>
       <c r="AF31" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG31" t="n">
         <v>29</v>
@@ -6104,7 +6104,7 @@
         <v>9</v>
       </c>
       <c r="AI31" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ31" t="n">
         <v>10</v>
@@ -6122,13 +6122,13 @@
         <v>30</v>
       </c>
       <c r="AO31" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP31" t="n">
         <v>13</v>
       </c>
       <c r="AQ31" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AR31" t="n">
         <v>11</v>
@@ -6137,7 +6137,7 @@
         <v>24</v>
       </c>
       <c r="AT31" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AU31" t="n">
         <v>23</v>

--- a/Team-Data/2008-09/11-30-2008-09.xlsx
+++ b/Team-Data/2008-09/11-30-2008-09.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -753,16 +820,16 @@
         <v>6</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AH2" t="n">
         <v>21</v>
       </c>
       <c r="AI2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ2" t="n">
         <v>20</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>18</v>
       </c>
       <c r="AK2" t="n">
         <v>14</v>
@@ -780,19 +847,19 @@
         <v>20</v>
       </c>
       <c r="AP2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ2" t="n">
         <v>23</v>
       </c>
       <c r="AR2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AS2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AT2" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AU2" t="n">
         <v>14</v>
@@ -801,13 +868,13 @@
         <v>12</v>
       </c>
       <c r="AW2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AX2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ2" t="n">
         <v>14</v>
@@ -816,10 +883,10 @@
         <v>23</v>
       </c>
       <c r="BB2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BC2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>11-30-2008-09</t>
+          <t>2008-11-30</t>
         </is>
       </c>
     </row>
@@ -848,85 +915,85 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>0.882</v>
+        <v>0.889</v>
       </c>
       <c r="H3" t="n">
         <v>48.3</v>
       </c>
       <c r="I3" t="n">
-        <v>35.4</v>
+        <v>35.3</v>
       </c>
       <c r="J3" t="n">
-        <v>75.8</v>
+        <v>75.7</v>
       </c>
       <c r="K3" t="n">
-        <v>0.467</v>
+        <v>0.466</v>
       </c>
       <c r="L3" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="M3" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="N3" t="n">
-        <v>0.343</v>
+        <v>0.337</v>
       </c>
       <c r="O3" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="P3" t="n">
-        <v>29.4</v>
+        <v>29.6</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.766</v>
+        <v>0.756</v>
       </c>
       <c r="R3" t="n">
         <v>10.3</v>
       </c>
       <c r="S3" t="n">
-        <v>32.6</v>
+        <v>32.2</v>
       </c>
       <c r="T3" t="n">
-        <v>42.9</v>
+        <v>42.5</v>
       </c>
       <c r="U3" t="n">
-        <v>21.1</v>
+        <v>20.8</v>
       </c>
       <c r="V3" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="W3" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X3" t="n">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Z3" t="n">
-        <v>22.9</v>
+        <v>23.2</v>
       </c>
       <c r="AA3" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="AB3" t="n">
-        <v>98.7</v>
+        <v>98.2</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.300000000000001</v>
+        <v>8.1</v>
       </c>
       <c r="AD3" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -938,10 +1005,10 @@
         <v>2</v>
       </c>
       <c r="AH3" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AI3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ3" t="n">
         <v>28</v>
@@ -953,10 +1020,10 @@
         <v>20</v>
       </c>
       <c r="AM3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AN3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO3" t="n">
         <v>2</v>
@@ -965,40 +1032,40 @@
         <v>4</v>
       </c>
       <c r="AQ3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AR3" t="n">
         <v>23</v>
       </c>
       <c r="AS3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT3" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AU3" t="n">
         <v>11</v>
       </c>
       <c r="AV3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AW3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BA3" t="n">
         <v>3</v>
       </c>
       <c r="BB3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BC3" t="n">
         <v>3</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>11-30-2008-09</t>
+          <t>2008-11-30</t>
         </is>
       </c>
     </row>
@@ -1132,16 +1199,16 @@
         <v>25</v>
       </c>
       <c r="AL4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AM4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AN4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP4" t="n">
         <v>11</v>
@@ -1153,7 +1220,7 @@
         <v>19</v>
       </c>
       <c r="AS4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AT4" t="n">
         <v>28</v>
@@ -1171,13 +1238,13 @@
         <v>20</v>
       </c>
       <c r="AY4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AZ4" t="n">
         <v>20</v>
       </c>
       <c r="BA4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB4" t="n">
         <v>30</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>11-30-2008-09</t>
+          <t>2008-11-30</t>
         </is>
       </c>
     </row>
@@ -1227,67 +1294,67 @@
         <v>48</v>
       </c>
       <c r="I5" t="n">
-        <v>36.4</v>
+        <v>36.2</v>
       </c>
       <c r="J5" t="n">
-        <v>84.5</v>
+        <v>84.3</v>
       </c>
       <c r="K5" t="n">
         <v>0.43</v>
       </c>
       <c r="L5" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="M5" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="N5" t="n">
-        <v>0.36</v>
+        <v>0.352</v>
       </c>
       <c r="O5" t="n">
-        <v>19.1</v>
+        <v>19.9</v>
       </c>
       <c r="P5" t="n">
-        <v>23.5</v>
+        <v>24.8</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.8110000000000001</v>
+        <v>0.806</v>
       </c>
       <c r="R5" t="n">
-        <v>12.1</v>
+        <v>12.6</v>
       </c>
       <c r="S5" t="n">
-        <v>30.6</v>
+        <v>30</v>
       </c>
       <c r="T5" t="n">
-        <v>42.7</v>
+        <v>42.6</v>
       </c>
       <c r="U5" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="V5" t="n">
-        <v>15.4</v>
+        <v>15.7</v>
       </c>
       <c r="W5" t="n">
-        <v>8.4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X5" t="n">
         <v>5.1</v>
       </c>
       <c r="Y5" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="Z5" t="n">
         <v>23.3</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.6</v>
+        <v>21.1</v>
       </c>
       <c r="AB5" t="n">
-        <v>97.5</v>
+        <v>97.8</v>
       </c>
       <c r="AC5" t="n">
-        <v>-3.4</v>
+        <v>-3.3</v>
       </c>
       <c r="AD5" t="n">
         <v>15</v>
@@ -1308,46 +1375,46 @@
         <v>14</v>
       </c>
       <c r="AJ5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AK5" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AM5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AN5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO5" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="AP5" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AQ5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR5" t="n">
         <v>6</v>
       </c>
       <c r="AS5" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AT5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU5" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AV5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX5" t="n">
         <v>17</v>
@@ -1359,7 +1426,7 @@
         <v>26</v>
       </c>
       <c r="BA5" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="BB5" t="n">
         <v>17</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>11-30-2008-09</t>
+          <t>2008-11-30</t>
         </is>
       </c>
     </row>
@@ -1394,91 +1461,91 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E6" t="n">
         <v>14</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
-        <v>0.875</v>
+        <v>0.824</v>
       </c>
       <c r="H6" t="n">
         <v>48</v>
       </c>
       <c r="I6" t="n">
-        <v>38.7</v>
+        <v>38.1</v>
       </c>
       <c r="J6" t="n">
-        <v>80</v>
+        <v>79.3</v>
       </c>
       <c r="K6" t="n">
-        <v>0.484</v>
+        <v>0.481</v>
       </c>
       <c r="L6" t="n">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="M6" t="n">
-        <v>20.4</v>
+        <v>20.1</v>
       </c>
       <c r="N6" t="n">
-        <v>0.346</v>
+        <v>0.339</v>
       </c>
       <c r="O6" t="n">
-        <v>20.3</v>
+        <v>20.5</v>
       </c>
       <c r="P6" t="n">
-        <v>26.3</v>
+        <v>26.7</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.772</v>
+        <v>0.769</v>
       </c>
       <c r="R6" t="n">
-        <v>11.6</v>
+        <v>11.4</v>
       </c>
       <c r="S6" t="n">
-        <v>31.1</v>
+        <v>31.2</v>
       </c>
       <c r="T6" t="n">
-        <v>42.8</v>
+        <v>42.6</v>
       </c>
       <c r="U6" t="n">
-        <v>21.1</v>
+        <v>20.8</v>
       </c>
       <c r="V6" t="n">
-        <v>12.4</v>
+        <v>13</v>
       </c>
       <c r="W6" t="n">
         <v>7.4</v>
       </c>
       <c r="X6" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.6</v>
+        <v>20.9</v>
       </c>
       <c r="AA6" t="n">
-        <v>21.1</v>
+        <v>21.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>104.8</v>
+        <v>103.6</v>
       </c>
       <c r="AC6" t="n">
-        <v>11.9</v>
+        <v>10.9</v>
       </c>
       <c r="AD6" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="AE6" t="n">
         <v>2</v>
       </c>
       <c r="AF6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG6" t="n">
         <v>3</v>
@@ -1487,10 +1554,10 @@
         <v>21</v>
       </c>
       <c r="AI6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ6" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AK6" t="n">
         <v>3</v>
@@ -1499,52 +1566,52 @@
         <v>10</v>
       </c>
       <c r="AM6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AN6" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AO6" t="n">
         <v>6</v>
       </c>
       <c r="AP6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>16</v>
+      </c>
+      <c r="AS6" t="n">
         <v>10</v>
       </c>
-      <c r="AQ6" t="n">
+      <c r="AT6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AU6" t="n">
         <v>12</v>
       </c>
-      <c r="AR6" t="n">
+      <c r="AV6" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AZ6" t="n">
         <v>13</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>2</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>16</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>12</v>
       </c>
       <c r="BA6" t="n">
         <v>13</v>
       </c>
       <c r="BB6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC6" t="n">
         <v>2</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>11-30-2008-09</t>
+          <t>2008-11-30</t>
         </is>
       </c>
     </row>
@@ -1657,28 +1724,28 @@
         <v>15</v>
       </c>
       <c r="AE7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF7" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH7" t="n">
         <v>10</v>
       </c>
       <c r="AI7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK7" t="n">
         <v>20</v>
       </c>
       <c r="AL7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AM7" t="n">
         <v>10</v>
@@ -1690,7 +1757,7 @@
         <v>18</v>
       </c>
       <c r="AP7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ7" t="n">
         <v>5</v>
@@ -1702,7 +1769,7 @@
         <v>1</v>
       </c>
       <c r="AT7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AU7" t="n">
         <v>14</v>
@@ -1726,10 +1793,10 @@
         <v>27</v>
       </c>
       <c r="BB7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BC7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>11-30-2008-09</t>
+          <t>2008-11-30</t>
         </is>
       </c>
     </row>
@@ -1758,85 +1825,85 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F8" t="n">
         <v>6</v>
       </c>
       <c r="G8" t="n">
-        <v>0.667</v>
+        <v>0.647</v>
       </c>
       <c r="H8" t="n">
         <v>48.3</v>
       </c>
       <c r="I8" t="n">
-        <v>35.2</v>
+        <v>35.1</v>
       </c>
       <c r="J8" t="n">
         <v>77.59999999999999</v>
       </c>
       <c r="K8" t="n">
-        <v>0.454</v>
+        <v>0.453</v>
       </c>
       <c r="L8" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="M8" t="n">
-        <v>16.6</v>
+        <v>16.2</v>
       </c>
       <c r="N8" t="n">
-        <v>0.329</v>
+        <v>0.316</v>
       </c>
       <c r="O8" t="n">
-        <v>24.7</v>
+        <v>25</v>
       </c>
       <c r="P8" t="n">
-        <v>31.6</v>
+        <v>32.1</v>
       </c>
       <c r="Q8" t="n">
         <v>0.78</v>
       </c>
       <c r="R8" t="n">
-        <v>10.3</v>
+        <v>10.2</v>
       </c>
       <c r="S8" t="n">
         <v>31</v>
       </c>
       <c r="T8" t="n">
-        <v>41.3</v>
+        <v>41.2</v>
       </c>
       <c r="U8" t="n">
-        <v>22.8</v>
+        <v>22.5</v>
       </c>
       <c r="V8" t="n">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="W8" t="n">
-        <v>9.300000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="X8" t="n">
-        <v>5.9</v>
+        <v>5.4</v>
       </c>
       <c r="Y8" t="n">
         <v>6.2</v>
       </c>
       <c r="Z8" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="AA8" t="n">
-        <v>24.9</v>
+        <v>25.4</v>
       </c>
       <c r="AB8" t="n">
-        <v>100.6</v>
+        <v>100.4</v>
       </c>
       <c r="AC8" t="n">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="AD8" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AE8" t="n">
         <v>5</v>
@@ -1848,25 +1915,25 @@
         <v>6</v>
       </c>
       <c r="AH8" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AI8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ8" t="n">
         <v>24</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>25</v>
       </c>
       <c r="AK8" t="n">
         <v>11</v>
       </c>
       <c r="AL8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM8" t="n">
         <v>19</v>
       </c>
-      <c r="AM8" t="n">
-        <v>17</v>
-      </c>
       <c r="AN8" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AO8" t="n">
         <v>1</v>
@@ -1881,13 +1948,13 @@
         <v>24</v>
       </c>
       <c r="AS8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AT8" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AU8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV8" t="n">
         <v>26</v>
@@ -1896,22 +1963,22 @@
         <v>2</v>
       </c>
       <c r="AX8" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AY8" t="n">
         <v>28</v>
       </c>
       <c r="AZ8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BA8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BC8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>11-30-2008-09</t>
+          <t>2008-11-30</t>
         </is>
       </c>
     </row>
@@ -1940,70 +2007,70 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
       </c>
       <c r="F9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G9" t="n">
-        <v>0.625</v>
+        <v>0.667</v>
       </c>
       <c r="H9" t="n">
         <v>48</v>
       </c>
       <c r="I9" t="n">
-        <v>35.4</v>
+        <v>35.7</v>
       </c>
       <c r="J9" t="n">
-        <v>78.90000000000001</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="K9" t="n">
-        <v>0.448</v>
+        <v>0.449</v>
       </c>
       <c r="L9" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="M9" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="N9" t="n">
-        <v>0.386</v>
+        <v>0.393</v>
       </c>
       <c r="O9" t="n">
-        <v>20.3</v>
+        <v>20.1</v>
       </c>
       <c r="P9" t="n">
-        <v>26.4</v>
+        <v>26.3</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.768</v>
+        <v>0.765</v>
       </c>
       <c r="R9" t="n">
-        <v>11.3</v>
+        <v>11.5</v>
       </c>
       <c r="S9" t="n">
-        <v>29.6</v>
+        <v>30.2</v>
       </c>
       <c r="T9" t="n">
-        <v>40.9</v>
+        <v>41.7</v>
       </c>
       <c r="U9" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="V9" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="W9" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="X9" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Y9" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="Z9" t="n">
         <v>21.7</v>
@@ -2012,88 +2079,88 @@
         <v>21.8</v>
       </c>
       <c r="AB9" t="n">
-        <v>96.7</v>
+        <v>97.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="AD9" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="AE9" t="n">
         <v>10</v>
       </c>
       <c r="AF9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AH9" t="n">
         <v>21</v>
       </c>
       <c r="AI9" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AJ9" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AK9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL9" t="n">
         <v>16</v>
       </c>
       <c r="AM9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AN9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AO9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AP9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>14</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV9" t="n">
         <v>6</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>14</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>16</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>20</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>18</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>5</v>
       </c>
       <c r="AW9" t="n">
         <v>23</v>
       </c>
       <c r="AX9" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AY9" t="n">
         <v>13</v>
       </c>
       <c r="AZ9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BA9" t="n">
         <v>12</v>
       </c>
       <c r="BB9" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BC9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>11-30-2008-09</t>
+          <t>2008-11-30</t>
         </is>
       </c>
     </row>
@@ -2200,13 +2267,13 @@
         <v>-4.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE10" t="n">
         <v>23</v>
       </c>
       <c r="AF10" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG10" t="n">
         <v>24</v>
@@ -2215,7 +2282,7 @@
         <v>7</v>
       </c>
       <c r="AI10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ10" t="n">
         <v>3</v>
@@ -2227,7 +2294,7 @@
         <v>18</v>
       </c>
       <c r="AM10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AN10" t="n">
         <v>27</v>
@@ -2245,13 +2312,13 @@
         <v>3</v>
       </c>
       <c r="AS10" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AT10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AU10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AV10" t="n">
         <v>17</v>
@@ -2263,16 +2330,16 @@
         <v>1</v>
       </c>
       <c r="AY10" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AZ10" t="n">
         <v>16</v>
       </c>
       <c r="BA10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC10" t="n">
         <v>25</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>11-30-2008-09</t>
+          <t>2008-11-30</t>
         </is>
       </c>
     </row>
@@ -2304,97 +2371,97 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11" t="n">
         <v>11</v>
       </c>
       <c r="F11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G11" t="n">
-        <v>0.611</v>
+        <v>0.647</v>
       </c>
       <c r="H11" t="n">
         <v>48.3</v>
       </c>
       <c r="I11" t="n">
-        <v>34</v>
+        <v>34.2</v>
       </c>
       <c r="J11" t="n">
-        <v>79.3</v>
+        <v>79.5</v>
       </c>
       <c r="K11" t="n">
-        <v>0.429</v>
+        <v>0.43</v>
       </c>
       <c r="L11" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="M11" t="n">
-        <v>17.9</v>
+        <v>17.8</v>
       </c>
       <c r="N11" t="n">
-        <v>0.359</v>
+        <v>0.35</v>
       </c>
       <c r="O11" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="P11" t="n">
-        <v>24.3</v>
+        <v>24.2</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.819</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="R11" t="n">
         <v>10.6</v>
       </c>
       <c r="S11" t="n">
-        <v>32.5</v>
+        <v>32.8</v>
       </c>
       <c r="T11" t="n">
-        <v>43.1</v>
+        <v>43.4</v>
       </c>
       <c r="U11" t="n">
-        <v>18.5</v>
+        <v>18.3</v>
       </c>
       <c r="V11" t="n">
-        <v>13.4</v>
+        <v>13.2</v>
       </c>
       <c r="W11" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="X11" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="Y11" t="n">
-        <v>5.9</v>
+        <v>5.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="AA11" t="n">
         <v>20.9</v>
       </c>
       <c r="AB11" t="n">
-        <v>94.3</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="AC11" t="n">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="AD11" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AE11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AF11" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AG11" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AH11" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AI11" t="n">
         <v>29</v>
@@ -2403,22 +2470,22 @@
         <v>17</v>
       </c>
       <c r="AK11" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AM11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AO11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ11" t="n">
         <v>2</v>
@@ -2427,25 +2494,25 @@
         <v>20</v>
       </c>
       <c r="AS11" t="n">
+        <v>5</v>
+      </c>
+      <c r="AT11" t="n">
         <v>6</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>9</v>
       </c>
       <c r="AU11" t="n">
         <v>26</v>
       </c>
       <c r="AV11" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AW11" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AX11" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AY11" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AZ11" t="n">
         <v>2</v>
@@ -2457,7 +2524,7 @@
         <v>24</v>
       </c>
       <c r="BC11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>11-30-2008-09</t>
+          <t>2008-11-30</t>
         </is>
       </c>
     </row>
@@ -2570,13 +2637,13 @@
         <v>22</v>
       </c>
       <c r="AF12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AI12" t="n">
         <v>7</v>
@@ -2585,16 +2652,16 @@
         <v>5</v>
       </c>
       <c r="AK12" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL12" t="n">
         <v>9</v>
       </c>
       <c r="AM12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AN12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO12" t="n">
         <v>27</v>
@@ -2603,7 +2670,7 @@
         <v>29</v>
       </c>
       <c r="AQ12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR12" t="n">
         <v>9</v>
@@ -2612,13 +2679,13 @@
         <v>2</v>
       </c>
       <c r="AT12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU12" t="n">
         <v>7</v>
       </c>
       <c r="AV12" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AW12" t="n">
         <v>25</v>
@@ -2627,7 +2694,7 @@
         <v>4</v>
       </c>
       <c r="AY12" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AZ12" t="n">
         <v>28</v>
@@ -2639,7 +2706,7 @@
         <v>10</v>
       </c>
       <c r="BC12" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>11-30-2008-09</t>
+          <t>2008-11-30</t>
         </is>
       </c>
     </row>
@@ -2761,7 +2828,7 @@
         <v>10</v>
       </c>
       <c r="AI13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ13" t="n">
         <v>9</v>
@@ -2770,7 +2837,7 @@
         <v>29</v>
       </c>
       <c r="AL13" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM13" t="n">
         <v>15</v>
@@ -2782,7 +2849,7 @@
         <v>29</v>
       </c>
       <c r="AP13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AQ13" t="n">
         <v>29</v>
@@ -2797,7 +2864,7 @@
         <v>22</v>
       </c>
       <c r="AU13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AV13" t="n">
         <v>18</v>
@@ -2809,10 +2876,10 @@
         <v>3</v>
       </c>
       <c r="AY13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BA13" t="n">
         <v>26</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>11-30-2008-09</t>
+          <t>2008-11-30</t>
         </is>
       </c>
     </row>
@@ -2865,67 +2932,67 @@
         <v>48</v>
       </c>
       <c r="I14" t="n">
-        <v>41.1</v>
+        <v>40.4</v>
       </c>
       <c r="J14" t="n">
-        <v>88.09999999999999</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="K14" t="n">
-        <v>0.466</v>
+        <v>0.463</v>
       </c>
       <c r="L14" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="M14" t="n">
-        <v>18.1</v>
+        <v>17.6</v>
       </c>
       <c r="N14" t="n">
-        <v>0.362</v>
+        <v>0.386</v>
       </c>
       <c r="O14" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="P14" t="n">
-        <v>26.4</v>
+        <v>26.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.756</v>
+        <v>0.755</v>
       </c>
       <c r="R14" t="n">
-        <v>14.1</v>
+        <v>13.6</v>
       </c>
       <c r="S14" t="n">
-        <v>33.2</v>
+        <v>33.3</v>
       </c>
       <c r="T14" t="n">
-        <v>47.3</v>
+        <v>46.9</v>
       </c>
       <c r="U14" t="n">
-        <v>23.5</v>
+        <v>22.4</v>
       </c>
       <c r="V14" t="n">
-        <v>13.6</v>
+        <v>13.4</v>
       </c>
       <c r="W14" t="n">
-        <v>10.4</v>
+        <v>10.2</v>
       </c>
       <c r="X14" t="n">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="Z14" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="AA14" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="AB14" t="n">
-        <v>108.6</v>
+        <v>107.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>13.3</v>
+        <v>13.8</v>
       </c>
       <c r="AD14" t="n">
         <v>29</v>
@@ -2949,25 +3016,25 @@
         <v>2</v>
       </c>
       <c r="AK14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AL14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AM14" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AN14" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AO14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP14" t="n">
         <v>7</v>
       </c>
       <c r="AQ14" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AR14" t="n">
         <v>2</v>
@@ -2979,16 +3046,16 @@
         <v>1</v>
       </c>
       <c r="AU14" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AV14" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AW14" t="n">
         <v>1</v>
       </c>
       <c r="AX14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY14" t="n">
         <v>12</v>
@@ -2997,7 +3064,7 @@
         <v>5</v>
       </c>
       <c r="BA14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BB14" t="n">
         <v>1</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>11-30-2008-09</t>
+          <t>2008-11-30</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>-6.8</v>
       </c>
       <c r="AD15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE15" t="n">
         <v>26</v>
@@ -3140,22 +3207,22 @@
         <v>27</v>
       </c>
       <c r="AN15" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO15" t="n">
         <v>19</v>
       </c>
       <c r="AP15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ15" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR15" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AS15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AT15" t="n">
         <v>23</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>11-30-2008-09</t>
+          <t>2008-11-30</t>
         </is>
       </c>
     </row>
@@ -3292,10 +3359,10 @@
         <v>1.1</v>
       </c>
       <c r="AD16" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF16" t="n">
         <v>18</v>
@@ -3307,7 +3374,7 @@
         <v>21</v>
       </c>
       <c r="AI16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ16" t="n">
         <v>13</v>
@@ -3316,10 +3383,10 @@
         <v>13</v>
       </c>
       <c r="AL16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AM16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AN16" t="n">
         <v>17</v>
@@ -3328,7 +3395,7 @@
         <v>25</v>
       </c>
       <c r="AP16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ16" t="n">
         <v>25</v>
@@ -3343,7 +3410,7 @@
         <v>29</v>
       </c>
       <c r="AU16" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV16" t="n">
         <v>1</v>
@@ -3355,7 +3422,7 @@
         <v>10</v>
       </c>
       <c r="AY16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ16" t="n">
         <v>9</v>
@@ -3364,10 +3431,10 @@
         <v>25</v>
       </c>
       <c r="BB16" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BC16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>11-30-2008-09</t>
+          <t>2008-11-30</t>
         </is>
       </c>
     </row>
@@ -3396,28 +3463,28 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E17" t="n">
         <v>7</v>
       </c>
       <c r="F17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G17" t="n">
-        <v>0.389</v>
+        <v>0.368</v>
       </c>
       <c r="H17" t="n">
         <v>48.8</v>
       </c>
       <c r="I17" t="n">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="J17" t="n">
-        <v>81.90000000000001</v>
+        <v>81.7</v>
       </c>
       <c r="K17" t="n">
-        <v>0.427</v>
+        <v>0.429</v>
       </c>
       <c r="L17" t="n">
         <v>4.9</v>
@@ -3426,34 +3493,34 @@
         <v>14.2</v>
       </c>
       <c r="N17" t="n">
-        <v>0.345</v>
+        <v>0.349</v>
       </c>
       <c r="O17" t="n">
-        <v>20.1</v>
+        <v>19.8</v>
       </c>
       <c r="P17" t="n">
-        <v>26.3</v>
+        <v>26</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.764</v>
+        <v>0.763</v>
       </c>
       <c r="R17" t="n">
         <v>13.2</v>
       </c>
       <c r="S17" t="n">
-        <v>31.5</v>
+        <v>30.8</v>
       </c>
       <c r="T17" t="n">
-        <v>44.7</v>
+        <v>44</v>
       </c>
       <c r="U17" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="V17" t="n">
-        <v>16.2</v>
+        <v>16.4</v>
       </c>
       <c r="W17" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="X17" t="n">
         <v>3.5</v>
@@ -3462,28 +3529,28 @@
         <v>5.7</v>
       </c>
       <c r="Z17" t="n">
-        <v>25.5</v>
+        <v>25.7</v>
       </c>
       <c r="AA17" t="n">
-        <v>23.9</v>
+        <v>23.6</v>
       </c>
       <c r="AB17" t="n">
         <v>95</v>
       </c>
       <c r="AC17" t="n">
-        <v>-1.8</v>
+        <v>-2.4</v>
       </c>
       <c r="AD17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE17" t="n">
         <v>19</v>
       </c>
       <c r="AF17" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG17" t="n">
         <v>22</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>21</v>
       </c>
       <c r="AH17" t="n">
         <v>2</v>
@@ -3498,46 +3565,46 @@
         <v>28</v>
       </c>
       <c r="AL17" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AM17" t="n">
         <v>26</v>
       </c>
       <c r="AN17" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AO17" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AP17" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AQ17" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR17" t="n">
         <v>4</v>
       </c>
       <c r="AS17" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AT17" t="n">
         <v>5</v>
       </c>
       <c r="AU17" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AV17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AW17" t="n">
         <v>27</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>28</v>
       </c>
       <c r="AX17" t="n">
         <v>27</v>
       </c>
       <c r="AY17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ17" t="n">
         <v>29</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>11-30-2008-09</t>
+          <t>2008-11-30</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-3</v>
       </c>
       <c r="AD18" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AE18" t="n">
         <v>26</v>
@@ -3680,16 +3747,16 @@
         <v>23</v>
       </c>
       <c r="AL18" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AM18" t="n">
         <v>23</v>
       </c>
       <c r="AN18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP18" t="n">
         <v>23</v>
@@ -3701,16 +3768,16 @@
         <v>10</v>
       </c>
       <c r="AS18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AT18" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU18" t="n">
         <v>2</v>
       </c>
       <c r="AV18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AW18" t="n">
         <v>29</v>
@@ -3719,19 +3786,19 @@
         <v>21</v>
       </c>
       <c r="AY18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AZ18" t="n">
         <v>27</v>
       </c>
       <c r="BA18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BB18" t="n">
         <v>18</v>
       </c>
       <c r="BC18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>11-30-2008-09</t>
+          <t>2008-11-30</t>
         </is>
       </c>
     </row>
@@ -3760,94 +3827,94 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F19" t="n">
         <v>7</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5629999999999999</v>
+        <v>0.533</v>
       </c>
       <c r="H19" t="n">
-        <v>48.6</v>
+        <v>48.7</v>
       </c>
       <c r="I19" t="n">
-        <v>36.2</v>
+        <v>35.9</v>
       </c>
       <c r="J19" t="n">
-        <v>80.90000000000001</v>
+        <v>81</v>
       </c>
       <c r="K19" t="n">
-        <v>0.447</v>
+        <v>0.444</v>
       </c>
       <c r="L19" t="n">
         <v>7.3</v>
       </c>
       <c r="M19" t="n">
-        <v>19.6</v>
+        <v>19.4</v>
       </c>
       <c r="N19" t="n">
-        <v>0.374</v>
+        <v>0.375</v>
       </c>
       <c r="O19" t="n">
-        <v>22.2</v>
+        <v>21.7</v>
       </c>
       <c r="P19" t="n">
-        <v>28.6</v>
+        <v>28.4</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.775</v>
+        <v>0.765</v>
       </c>
       <c r="R19" t="n">
-        <v>11.4</v>
+        <v>11.7</v>
       </c>
       <c r="S19" t="n">
-        <v>29.3</v>
+        <v>29.7</v>
       </c>
       <c r="T19" t="n">
-        <v>40.6</v>
+        <v>41.4</v>
       </c>
       <c r="U19" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="V19" t="n">
         <v>13.3</v>
       </c>
       <c r="W19" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="X19" t="n">
         <v>5</v>
       </c>
       <c r="Y19" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Z19" t="n">
-        <v>25.8</v>
+        <v>26.1</v>
       </c>
       <c r="AA19" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="AB19" t="n">
-        <v>101.9</v>
+        <v>100.9</v>
       </c>
       <c r="AC19" t="n">
-        <v>-2.4</v>
+        <v>-3.1</v>
       </c>
       <c r="AD19" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="AE19" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF19" t="n">
         <v>12</v>
       </c>
-      <c r="AF19" t="n">
-        <v>10</v>
-      </c>
       <c r="AG19" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH19" t="n">
         <v>3</v>
@@ -3859,16 +3926,16 @@
         <v>14</v>
       </c>
       <c r="AK19" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AM19" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AN19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO19" t="n">
         <v>4</v>
@@ -3877,43 +3944,43 @@
         <v>5</v>
       </c>
       <c r="AQ19" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AR19" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AS19" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AT19" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="AU19" t="n">
         <v>24</v>
       </c>
       <c r="AV19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW19" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AX19" t="n">
         <v>18</v>
       </c>
       <c r="AY19" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AZ19" t="n">
         <v>30</v>
       </c>
       <c r="BA19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB19" t="n">
         <v>5</v>
       </c>
       <c r="BC19" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>11-30-2008-09</t>
+          <t>2008-11-30</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>3.2</v>
       </c>
       <c r="AD20" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AE20" t="n">
         <v>12</v>
@@ -4035,13 +4102,13 @@
         <v>30</v>
       </c>
       <c r="AI20" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ20" t="n">
         <v>27</v>
       </c>
       <c r="AK20" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AL20" t="n">
         <v>6</v>
@@ -4053,13 +4120,13 @@
         <v>4</v>
       </c>
       <c r="AO20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP20" t="n">
         <v>27</v>
       </c>
       <c r="AQ20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AR20" t="n">
         <v>27</v>
@@ -4074,7 +4141,7 @@
         <v>16</v>
       </c>
       <c r="AV20" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AW20" t="n">
         <v>8</v>
@@ -4083,7 +4150,7 @@
         <v>26</v>
       </c>
       <c r="AY20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AZ20" t="n">
         <v>15</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>11-30-2008-09</t>
+          <t>2008-11-30</t>
         </is>
       </c>
     </row>
@@ -4205,13 +4272,13 @@
         <v>15</v>
       </c>
       <c r="AE21" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF21" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG21" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH21" t="n">
         <v>10</v>
@@ -4232,7 +4299,7 @@
         <v>1</v>
       </c>
       <c r="AN21" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO21" t="n">
         <v>24</v>
@@ -4250,7 +4317,7 @@
         <v>7</v>
       </c>
       <c r="AT21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AU21" t="n">
         <v>3</v>
@@ -4265,7 +4332,7 @@
         <v>30</v>
       </c>
       <c r="AY21" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ21" t="n">
         <v>6</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>11-30-2008-09</t>
+          <t>2008-11-30</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>-11.2</v>
       </c>
       <c r="AD22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE22" t="n">
         <v>29</v>
@@ -4414,34 +4481,34 @@
         <v>30</v>
       </c>
       <c r="AN22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO22" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AP22" t="n">
         <v>14</v>
       </c>
       <c r="AQ22" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AR22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AS22" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AT22" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AU22" t="n">
         <v>27</v>
       </c>
       <c r="AV22" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW22" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AX22" t="n">
         <v>24</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>11-30-2008-09</t>
+          <t>2008-11-30</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>6.2</v>
       </c>
       <c r="AD23" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE23" t="n">
         <v>3</v>
@@ -4581,13 +4648,13 @@
         <v>14</v>
       </c>
       <c r="AI23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ23" t="n">
         <v>22</v>
       </c>
       <c r="AK23" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL23" t="n">
         <v>4</v>
@@ -4596,7 +4663,7 @@
         <v>2</v>
       </c>
       <c r="AN23" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO23" t="n">
         <v>5</v>
@@ -4614,7 +4681,7 @@
         <v>4</v>
       </c>
       <c r="AT23" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU23" t="n">
         <v>28</v>
@@ -4629,19 +4696,19 @@
         <v>2</v>
       </c>
       <c r="AY23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ23" t="n">
         <v>11</v>
       </c>
       <c r="BA23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB23" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BC23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>11-30-2008-09</t>
+          <t>2008-11-30</t>
         </is>
       </c>
     </row>
@@ -4670,94 +4737,94 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E24" t="n">
         <v>7</v>
       </c>
       <c r="F24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G24" t="n">
-        <v>0.412</v>
+        <v>0.438</v>
       </c>
       <c r="H24" t="n">
         <v>48</v>
       </c>
       <c r="I24" t="n">
-        <v>36.6</v>
+        <v>36.7</v>
       </c>
       <c r="J24" t="n">
-        <v>84</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="K24" t="n">
         <v>0.436</v>
       </c>
       <c r="L24" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="M24" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="N24" t="n">
-        <v>0.335</v>
+        <v>0.332</v>
       </c>
       <c r="O24" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="P24" t="n">
-        <v>22.3</v>
+        <v>22.5</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.736</v>
+        <v>0.733</v>
       </c>
       <c r="R24" t="n">
-        <v>14.4</v>
+        <v>14.6</v>
       </c>
       <c r="S24" t="n">
-        <v>31.7</v>
+        <v>31.9</v>
       </c>
       <c r="T24" t="n">
-        <v>46.1</v>
+        <v>46.6</v>
       </c>
       <c r="U24" t="n">
-        <v>20.3</v>
+        <v>19.8</v>
       </c>
       <c r="V24" t="n">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="W24" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="X24" t="n">
-        <v>5.5</v>
+        <v>5.9</v>
       </c>
       <c r="Y24" t="n">
         <v>5.8</v>
       </c>
       <c r="Z24" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="AA24" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="AB24" t="n">
-        <v>93.90000000000001</v>
+        <v>94</v>
       </c>
       <c r="AC24" t="n">
-        <v>-0.4</v>
+        <v>0.3</v>
       </c>
       <c r="AD24" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AE24" t="n">
         <v>19</v>
       </c>
       <c r="AF24" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AG24" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AH24" t="n">
         <v>21</v>
@@ -4778,13 +4845,13 @@
         <v>28</v>
       </c>
       <c r="AN24" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO24" t="n">
         <v>28</v>
       </c>
       <c r="AP24" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ24" t="n">
         <v>28</v>
@@ -4796,19 +4863,19 @@
         <v>8</v>
       </c>
       <c r="AT24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AU24" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AV24" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AW24" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AX24" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AY24" t="n">
         <v>24</v>
@@ -4823,7 +4890,7 @@
         <v>25</v>
       </c>
       <c r="BC24" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>11-30-2008-09</t>
+          <t>2008-11-30</t>
         </is>
       </c>
     </row>
@@ -4852,100 +4919,100 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E25" t="n">
         <v>11</v>
       </c>
       <c r="F25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G25" t="n">
-        <v>0.611</v>
+        <v>0.647</v>
       </c>
       <c r="H25" t="n">
         <v>48.3</v>
       </c>
       <c r="I25" t="n">
-        <v>37.2</v>
+        <v>37.1</v>
       </c>
       <c r="J25" t="n">
-        <v>74</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="K25" t="n">
-        <v>0.503</v>
+        <v>0.5</v>
       </c>
       <c r="L25" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="M25" t="n">
-        <v>17</v>
+        <v>16.8</v>
       </c>
       <c r="N25" t="n">
-        <v>0.389</v>
+        <v>0.379</v>
       </c>
       <c r="O25" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="P25" t="n">
-        <v>26.3</v>
+        <v>26.5</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.741</v>
+        <v>0.74</v>
       </c>
       <c r="R25" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="S25" t="n">
-        <v>31.4</v>
+        <v>31.5</v>
       </c>
       <c r="T25" t="n">
-        <v>39.6</v>
+        <v>39.7</v>
       </c>
       <c r="U25" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="V25" t="n">
-        <v>16.9</v>
+        <v>16.6</v>
       </c>
       <c r="W25" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="X25" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Y25" t="n">
         <v>4.2</v>
       </c>
       <c r="Z25" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="AA25" t="n">
         <v>21.8</v>
       </c>
       <c r="AB25" t="n">
-        <v>100.6</v>
+        <v>100.1</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AE25" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AF25" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI25" t="n">
         <v>10</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>9</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>9</v>
       </c>
       <c r="AJ25" t="n">
         <v>30</v>
@@ -4954,16 +5021,16 @@
         <v>1</v>
       </c>
       <c r="AL25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM25" t="n">
         <v>16</v>
       </c>
       <c r="AN25" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP25" t="n">
         <v>8</v>
@@ -4975,13 +5042,13 @@
         <v>30</v>
       </c>
       <c r="AS25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AT25" t="n">
         <v>24</v>
       </c>
       <c r="AU25" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AV25" t="n">
         <v>30</v>
@@ -4990,7 +5057,7 @@
         <v>26</v>
       </c>
       <c r="AX25" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AY25" t="n">
         <v>8</v>
@@ -4999,13 +5066,13 @@
         <v>7</v>
       </c>
       <c r="BA25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BB25" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BC25" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>11-30-2008-09</t>
+          <t>2008-11-30</t>
         </is>
       </c>
     </row>
@@ -5037,130 +5104,130 @@
         <v>17</v>
       </c>
       <c r="E26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G26" t="n">
-        <v>0.706</v>
+        <v>0.647</v>
       </c>
       <c r="H26" t="n">
         <v>48.3</v>
       </c>
       <c r="I26" t="n">
-        <v>36.6</v>
+        <v>36.2</v>
       </c>
       <c r="J26" t="n">
-        <v>78.5</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="K26" t="n">
-        <v>0.466</v>
+        <v>0.456</v>
       </c>
       <c r="L26" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="M26" t="n">
-        <v>20.8</v>
+        <v>21.2</v>
       </c>
       <c r="N26" t="n">
         <v>0.414</v>
       </c>
       <c r="O26" t="n">
-        <v>17.9</v>
+        <v>17.4</v>
       </c>
       <c r="P26" t="n">
-        <v>23.3</v>
+        <v>22.8</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.77</v>
+        <v>0.765</v>
       </c>
       <c r="R26" t="n">
         <v>13.1</v>
       </c>
       <c r="S26" t="n">
-        <v>27.2</v>
+        <v>27.7</v>
       </c>
       <c r="T26" t="n">
-        <v>40.3</v>
+        <v>40.8</v>
       </c>
       <c r="U26" t="n">
-        <v>21.7</v>
+        <v>21.5</v>
       </c>
       <c r="V26" t="n">
         <v>13.1</v>
       </c>
       <c r="W26" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="X26" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Z26" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="AA26" t="n">
-        <v>21</v>
+        <v>20.7</v>
       </c>
       <c r="AB26" t="n">
-        <v>99.7</v>
+        <v>98.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>6.9</v>
+        <v>5.1</v>
       </c>
       <c r="AD26" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE26" t="n">
         <v>5</v>
       </c>
       <c r="AF26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH26" t="n">
         <v>14</v>
       </c>
       <c r="AI26" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AJ26" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AK26" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AL26" t="n">
         <v>3</v>
       </c>
       <c r="AM26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AN26" t="n">
         <v>2</v>
       </c>
       <c r="AO26" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP26" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AR26" t="n">
         <v>5</v>
       </c>
       <c r="AS26" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AT26" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AU26" t="n">
         <v>8</v>
@@ -5169,25 +5236,25 @@
         <v>4</v>
       </c>
       <c r="AW26" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AX26" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AY26" t="n">
         <v>1</v>
       </c>
       <c r="AZ26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA26" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="BB26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BC26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>11-30-2008-09</t>
+          <t>2008-11-30</t>
         </is>
       </c>
     </row>
@@ -5321,7 +5388,7 @@
         <v>22</v>
       </c>
       <c r="AM27" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AN27" t="n">
         <v>29</v>
@@ -5360,10 +5427,10 @@
         <v>11</v>
       </c>
       <c r="AZ27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BA27" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BB27" t="n">
         <v>16</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>11-30-2008-09</t>
+          <t>2008-11-30</t>
         </is>
       </c>
     </row>
@@ -5482,16 +5549,16 @@
         <v>12</v>
       </c>
       <c r="AF28" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AG28" t="n">
         <v>13</v>
       </c>
       <c r="AH28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AI28" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ28" t="n">
         <v>26</v>
@@ -5503,7 +5570,7 @@
         <v>5</v>
       </c>
       <c r="AM28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AN28" t="n">
         <v>5</v>
@@ -5524,22 +5591,22 @@
         <v>13</v>
       </c>
       <c r="AT28" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AU28" t="n">
         <v>13</v>
       </c>
       <c r="AV28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW28" t="n">
         <v>30</v>
       </c>
       <c r="AX28" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AY28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AZ28" t="n">
         <v>3</v>
@@ -5551,7 +5618,7 @@
         <v>26</v>
       </c>
       <c r="BC28" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>11-30-2008-09</t>
+          <t>2008-11-30</t>
         </is>
       </c>
     </row>
@@ -5580,121 +5647,121 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E29" t="n">
         <v>8</v>
       </c>
       <c r="F29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5</v>
+        <v>0.533</v>
       </c>
       <c r="H29" t="n">
-        <v>48.6</v>
+        <v>48.7</v>
       </c>
       <c r="I29" t="n">
-        <v>35.6</v>
+        <v>35.7</v>
       </c>
       <c r="J29" t="n">
-        <v>78</v>
+        <v>77.3</v>
       </c>
       <c r="K29" t="n">
-        <v>0.456</v>
+        <v>0.461</v>
       </c>
       <c r="L29" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="M29" t="n">
-        <v>16.4</v>
+        <v>15.9</v>
       </c>
       <c r="N29" t="n">
-        <v>0.407</v>
+        <v>0.403</v>
       </c>
       <c r="O29" t="n">
         <v>20.2</v>
       </c>
       <c r="P29" t="n">
-        <v>24.2</v>
+        <v>24.1</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.835</v>
+        <v>0.839</v>
       </c>
       <c r="R29" t="n">
-        <v>8.9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="S29" t="n">
-        <v>30</v>
+        <v>30.3</v>
       </c>
       <c r="T29" t="n">
-        <v>38.9</v>
+        <v>39.1</v>
       </c>
       <c r="U29" t="n">
         <v>23.1</v>
       </c>
       <c r="V29" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="W29" t="n">
-        <v>6.3</v>
+        <v>5.9</v>
       </c>
       <c r="X29" t="n">
         <v>5.3</v>
       </c>
       <c r="Y29" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Z29" t="n">
-        <v>18.3</v>
+        <v>18.5</v>
       </c>
       <c r="AA29" t="n">
-        <v>21.9</v>
+        <v>22.1</v>
       </c>
       <c r="AB29" t="n">
-        <v>98</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="AC29" t="n">
-        <v>-1.7</v>
+        <v>-0.9</v>
       </c>
       <c r="AD29" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="AE29" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF29" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AG29" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH29" t="n">
         <v>3</v>
       </c>
       <c r="AI29" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ29" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK29" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AL29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM29" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AN29" t="n">
         <v>3</v>
       </c>
       <c r="AO29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AP29" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ29" t="n">
         <v>1</v>
@@ -5703,19 +5770,19 @@
         <v>28</v>
       </c>
       <c r="AS29" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AT29" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AU29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV29" t="n">
         <v>14</v>
       </c>
       <c r="AW29" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AX29" t="n">
         <v>13</v>
@@ -5727,7 +5794,7 @@
         <v>1</v>
       </c>
       <c r="BA29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB29" t="n">
         <v>15</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>11-30-2008-09</t>
+          <t>2008-11-30</t>
         </is>
       </c>
     </row>
@@ -5840,16 +5907,16 @@
         <v>3.6</v>
       </c>
       <c r="AD30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE30" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AF30" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AG30" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AH30" t="n">
         <v>21</v>
@@ -5858,7 +5925,7 @@
         <v>5</v>
       </c>
       <c r="AJ30" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK30" t="n">
         <v>2</v>
@@ -5873,13 +5940,13 @@
         <v>12</v>
       </c>
       <c r="AO30" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AP30" t="n">
         <v>12</v>
       </c>
       <c r="AQ30" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AR30" t="n">
         <v>7</v>
@@ -5888,7 +5955,7 @@
         <v>25</v>
       </c>
       <c r="AT30" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AU30" t="n">
         <v>1</v>
@@ -5915,7 +5982,7 @@
         <v>9</v>
       </c>
       <c r="BC30" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>11-30-2008-09</t>
+          <t>2008-11-30</t>
         </is>
       </c>
     </row>
@@ -6028,7 +6095,7 @@
         <v>29</v>
       </c>
       <c r="AF31" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG31" t="n">
         <v>29</v>
@@ -6037,7 +6104,7 @@
         <v>9</v>
       </c>
       <c r="AI31" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ31" t="n">
         <v>10</v>
@@ -6049,13 +6116,13 @@
         <v>26</v>
       </c>
       <c r="AM31" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AN31" t="n">
         <v>30</v>
       </c>
       <c r="AO31" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP31" t="n">
         <v>13</v>
@@ -6070,13 +6137,13 @@
         <v>24</v>
       </c>
       <c r="AT31" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AU31" t="n">
         <v>23</v>
       </c>
       <c r="AV31" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW31" t="n">
         <v>7</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>11-30-2008-09</t>
+          <t>2008-11-30</t>
         </is>
       </c>
     </row>
